--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1066.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1066.xlsx
@@ -351,7 +351,7 @@
         <v>1.44359810005666</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
         <v>2.422261575023577</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1066.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1066.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.44359810005666</v>
+        <v>1.193646430969238</v>
       </c>
       <c r="B1">
+        <v>2.588683843612671</v>
+      </c>
+      <c r="C1">
         <v>15</v>
       </c>
-      <c r="C1">
-        <v>2.422261575023577</v>
-      </c>
       <c r="D1">
-        <v>1.593370709542681</v>
+        <v>2.192995071411133</v>
       </c>
       <c r="E1">
-        <v>1.309189228708787</v>
+        <v>1.179575204849243</v>
       </c>
     </row>
   </sheetData>
